--- a/cmd/fet2xlsx/test1_data_and_timetable_teachers.xlsx
+++ b/cmd/fet2xlsx/test1_data_and_timetable_teachers.xlsx
@@ -282,7 +282,7 @@
     <t>BW</t>
   </si>
   <si>
-    <t>10,10K,11,11K,12,12K,8,9,9K</t>
+    <t>8,9,9K,10,10K,11,11K,12,12K</t>
   </si>
   <si>
     <t>HU</t>
@@ -639,7 +639,7 @@
     <t>Bio</t>
   </si>
   <si>
-    <t>10,10K,11,11K,12,12K,7,7K,8,8K,9,9K</t>
+    <t>7,7K,8,8K,9,9K,10,10K,11,11K,12,12K</t>
   </si>
   <si>
     <t>Or</t>
